--- a/良仓-张朋涛/【北京校区】-张朋涛进度表.xlsx
+++ b/良仓-张朋涛/【北京校区】-张朋涛进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -55,22 +55,43 @@
     <t>第二天</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>对HTML的布局有了新的认识</t>
+  </si>
+  <si>
     <t>第三天</t>
   </si>
   <si>
-    <t>注册页面静态</t>
+    <t>css样式添加</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>发现css一部分东西已经忘了百度后熟记</t>
   </si>
   <si>
     <t>第四天</t>
   </si>
   <si>
-    <t>注册页面动效(js)</t>
+    <t>JS获取数据及样式</t>
+  </si>
+  <si>
+    <t>接口不太熟悉</t>
+  </si>
+  <si>
+    <t>暂未有</t>
   </si>
   <si>
     <t>第五天</t>
   </si>
   <si>
-    <t>小组整合代码，解决BUG</t>
+    <t>填写相应的链接</t>
   </si>
 </sst>
 </file>
@@ -78,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -101,6 +122,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,37 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -221,23 +242,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,24 +279,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -288,66 +321,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,6 +387,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,7 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,48 +454,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,16 +584,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,55 +602,55 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -638,22 +659,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,12 +683,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,23 +698,23 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +726,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,7 +1079,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1115,46 +1139,78 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.430555555555556</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.604861111111111</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
